--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="房客" sheetId="1" r:id="rId1"/>
+    <sheet name="房东" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,21 +29,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+  <si>
+    <t>注册接口</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="1">
+      <t>mo'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口描述</t>
+    <rPh sb="0" eb="1">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <rPh sb="0" eb="1">
+      <t>can's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <rPh sb="0" eb="1">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>用户模块</t>
     <rPh sb="0" eb="1">
       <t>yong'hu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>mo'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册接口</t>
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 参数password是通过md5加密的
+2. content中返回的是该账号对应的Token</t>
+    <rPh sb="3" eb="4">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jia'm</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>d</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhang'hao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
     <rPh sb="0" eb="1">
-      <t>zhu'c</t>
+      <t>deng'l</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>jie'k</t>
@@ -49,24 +150,1104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
+    <t>/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法</t>
+    <rPh sb="0" eb="1">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息接口</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/modifyUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone": "1111",
+"password":"dsihias"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone": "1111",
+"token":"xxx",
+"userName":"用户名",
+"sex":"性别"
+}</t>
+    <rPh sb="50" eb="51">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>xing'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册模块</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：
+1. 参数和返回值都是用json格式传输
+2. 返回的格式固定为
+{
+"code":1;
+"message":"success";
+"content":"token";
+}
+其中，state表示返回码，1代表返回成功返回，如果为0代表访问出错，一般的情况是参数出错之类的，表示不成功，例如登录失败、注册失败、获取数据失败等。</t>
+    <rPh sb="0" eb="1">
+      <t>bei'z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ge's</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chaun'shu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>d</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ge's</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>qi'zhong</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>fang'w</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>chu'cuo</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>d</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>chu'c</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>zhi'lei</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>d</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bu'cheng'g</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>li'ru</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>zu'c</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：
+1. 参数和返回值都是用json格式传输
+2. 返回的格式固定为
+{
+"code":1;
+"message":"success";
+"content":"token";
+}
+其中，code表示返回码，1代表返回成功返回，如果为0代表访问出错，一般的情况是参数出错之类的，表示不成功，例如登录失败、注册失败、获取数据失败等。</t>
+    <rPh sb="0" eb="1">
+      <t>bei'z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ge's</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chaun'shu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>d</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ge's</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>qi'zhong</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>fang'w</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>chu'cuo</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>d</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>chu'c</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>zhi'lei</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>d</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>bu'cheng'g</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>li'ru</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>zu'c</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"register success",
+"content":"token"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"login success",
+"content":"token"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码password必须在客户端或前端进行md5加密后请求接口</t>
+    <rPh sb="0" eb="1">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian'duan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jia'mi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
+    <rPh sb="0" eb="1">
+      <t>dneg'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布房源模块</t>
+    <rPh sb="0" eb="1">
+      <t>f'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房东房源地址接口</t>
+    <rPh sb="0" eb="1">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'z</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/user/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone": "15512345612",
+"password":"dsihias"
+}</t>
+  </si>
+  <si>
+    <t>{
+"userPhone": "15512345678",
+"token":"sdfahdu"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content字段中也是个Json数组对象，包含了位置信息</t>
+    <rPh sb="7" eb="8">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>l</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wei'z</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/getAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"获取房源地址成功",
+"content":[
+{"address":"华南师范大学，中山大道33号"},
+ {"address":"华南师范大学，中山大道33号"}
+]
+}</t>
+    <rPh sb="23" eb="24">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fang'y</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>di'zhi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>hua'nan</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>si'f</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>da'xue</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zhogn's</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>da'dao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增房东房源地址的接口</t>
+    <rPh sb="0" eb="1">
+      <t>xin'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/addAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone": "15512345678",
+"token":"sdfahdu",
+"address":"广州市天河区中山大道"
+}</t>
+    <rPh sb="60" eb="61">
+      <t>guang'zhou'shi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>tian'he'qu</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zhogn'shan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>da'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"添加成功",
+"content":""
+}</t>
+    <rPh sb="23" eb="24">
+      <t>tian'jai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源基本情况接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHouseBaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"保存成功",
+"content":""
+}</t>
+    <rPh sb="23" eb="24">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone":"15512345678",
+"token":"ahfudahd",
+"roomId":"100001",
+"address":"广州市天河区中山大道",
+"rentalType":0,
+"rentalTypeText":"整套出租",
+"peopleNum": 2,
+"roomNum":1,
+"hallNum":1,
+"bathroomNum":1,
+"kitchenNum":1,
+"balconyNum":1,
+"roomArea":20,
+"sofaNum":1,
+"liveWithOwner":0,
+"bed":[
+{"type":"双人床","length":2,"width":1,"num":1},
+{"type":"单人床","length":2,"width":1,"num":1}
+],
+"replaceBedSheet":"每日一换"
+}</t>
+    <rPh sb="126" eb="127">
+      <t>zheng'tao</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>chu'z</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>shuang'ren'c</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="390" eb="391">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="392" eb="393">
+      <t>yi'huan</t>
+    </rPh>
+    <rPh sb="393" eb="394">
+      <t>huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数的说明：
+roomId是在创建发布房源时产生的id，int
+address是对应要发布房源的具体位置描述
+rentalType为出租类型，用int对应具体的类型，具体的对应关系如下：
+0-&gt;3代表 整套出租、独立单间、床位出租、沙发出租
+rentalTypeText指的是出租类型的文本描述
+peopleNum表示适合住的人数，int
+"roomNum"表示室的个数，int
+"hallNum"表示厅个数，int
+"bathroomNum":卫室个数，int
+"kitchenNum":厨房个数，int
+"balconyNum":阳台个数，int
+"roomArea":房间面积，int
+"sofaNum":沙发的数量，int
+"liveWithOwner":是否和房主一起住，0代表不一起住，1代表一起住，int
+"bed":[
+{"type":"双人床","length":2,"width":1,"num":1},
+{"type":"单人床","length":2,"width":1,"num":1}
+]
+bed对应的值是一个json数组，数组中对应的json对象中type表示床的类型，length和width表示床的长宽，num表示这种规格的床的数量。
+"replaceBedSheet"表示床单更换的类别，String</t>
     <rPh sb="0" eb="1">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <rPh sb="0" eb="1">
-      <t>fan'h</t>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fa'bu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fang'y</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chan's</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>d</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fa'bu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>d</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wei'z</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>chu'z</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>d</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>d</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>guang'x</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ru'xia</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>dia'biao</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>zheng't</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>du'li'dan'j</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>chuang'w</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>sha'f</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>d</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>d</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>wen'b</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>miao'sh</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>shi'he</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>d</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>d</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>biao'shoi</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ting</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>wei's'j</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>yang't</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="287" eb="288">
+      <t>fang'j</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>mian'ji</t>
+    </rPh>
+    <rPh sb="306" eb="307">
+      <t>sha'f</t>
+    </rPh>
+    <rPh sb="308" eb="309">
+      <t>d</t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="334" eb="335">
+      <t>he</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>fang'zhu</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>yi'qi'zhu</t>
+    </rPh>
+    <rPh sb="342" eb="343">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="344" eb="345">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="345" eb="346">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="350" eb="351">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>yi'qi'hzu</t>
+    </rPh>
+    <rPh sb="462" eb="463">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="464" eb="465">
+      <t>d</t>
+    </rPh>
+    <rPh sb="465" eb="466">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="466" eb="467">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="467" eb="468">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="473" eb="474">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="476" eb="477">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="478" eb="479">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="479" eb="480">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="481" eb="482">
+      <t>d</t>
+    </rPh>
+    <rPh sb="486" eb="487">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="488" eb="489">
+      <t>zjong</t>
+    </rPh>
+    <rPh sb="493" eb="494">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="495" eb="496">
+      <t>chuang</t>
+    </rPh>
+    <rPh sb="496" eb="497">
+      <t>d</t>
+    </rPh>
+    <rPh sb="497" eb="498">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="506" eb="507">
+      <t>he</t>
+    </rPh>
+    <rPh sb="512" eb="513">
+      <t>biao'shoi</t>
+    </rPh>
+    <rPh sb="514" eb="515">
+      <t>chuang</t>
+    </rPh>
+    <rPh sb="515" eb="516">
+      <t>d</t>
+    </rPh>
+    <rPh sb="516" eb="517">
+      <t>chaung'kuan</t>
+    </rPh>
+    <rPh sb="522" eb="523">
+      <t>biao'shoi</t>
+    </rPh>
+    <rPh sb="524" eb="525">
+      <t>zhe'hzong</t>
+    </rPh>
+    <rPh sb="526" eb="527">
+      <t>gui'g</t>
+    </rPh>
+    <rPh sb="528" eb="529">
+      <t>d</t>
+    </rPh>
+    <rPh sb="529" eb="530">
+      <t>chaung</t>
+    </rPh>
+    <rPh sb="530" eb="531">
+      <t>d</t>
+    </rPh>
+    <rPh sb="531" eb="532">
+      <t>shu'l</t>
+    </rPh>
+    <rPh sb="552" eb="553">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="554" eb="555">
+      <t>chuang'd</t>
+    </rPh>
+    <rPh sb="556" eb="557">
+      <t>geng'h</t>
+    </rPh>
+    <rPh sb="558" eb="559">
+      <t>d</t>
+    </rPh>
+    <rPh sb="559" eb="560">
+      <t>lei'bie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,7 +1273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +1286,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,13 +1307,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,47 +1644,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="26.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="47.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="73.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="房客" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>注册接口</t>
     <rPh sb="0" eb="1">
@@ -634,11 +634,6 @@
   </si>
   <si>
     <t>house/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -880,7 +875,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>house/publish/saveHouseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数的说明：
+userPhone和token为当前房东登录后获得的凭证
 roomId是在创建发布房源时产生的id，int
 address是对应要发布房源的具体位置描述
 rentalType为出租类型，用int对应具体的类型，具体的对应关系如下：
@@ -910,344 +910,854 @@
     <rPh sb="3" eb="4">
       <t>shuo'ming</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="16" eb="17">
+      <t>he</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fang'don</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ping'z</t>
+    </rPh>
+    <rPh sb="42" eb="43">
       <t>shi</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="43" eb="44">
       <t>zai</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="44" eb="45">
       <t>chuang'j</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="46" eb="47">
       <t>fa'bu</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="48" eb="49">
       <t>fang'y</t>
     </rPh>
-    <rPh sb="21" eb="22">
+    <rPh sb="50" eb="51">
       <t>shi</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="51" eb="52">
       <t>chan's</t>
     </rPh>
-    <rPh sb="24" eb="25">
-      <t>d</t>
-    </rPh>
-    <rPh sb="39" eb="40">
+    <rPh sb="53" eb="54">
+      <t>d</t>
+    </rPh>
+    <rPh sb="68" eb="69">
       <t>shi</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="69" eb="70">
       <t>dui'ying</t>
     </rPh>
-    <rPh sb="42" eb="43">
+    <rPh sb="71" eb="72">
       <t>yao</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="72" eb="73">
       <t>fa'bu</t>
     </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="74" eb="75">
       <t>fang'yuan</t>
     </rPh>
-    <rPh sb="47" eb="48">
-      <t>d</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ju't</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>wei'z</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>miao's</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>chu'z</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>lei'x</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>dui'ying</t>
+    <rPh sb="76" eb="77">
+      <t>d</t>
     </rPh>
     <rPh sb="77" eb="78">
       <t>ju't</t>
     </rPh>
     <rPh sb="79" eb="80">
-      <t>d</t>
-    </rPh>
-    <rPh sb="80" eb="81">
+      <t>wei'z</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>chu'z</t>
+    </rPh>
+    <rPh sb="97" eb="98">
       <t>lei'x</t>
     </rPh>
+    <rPh sb="100" eb="101">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>d</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ju't</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>d</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>guang'x</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ru'xia</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>dia'biao</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>zheng't</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>du'li'dan'j</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>chuang'w</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>sha'f</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>d</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>d</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>wen'b</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>miao'sh</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>shi'he</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>d</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>d</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>biao'shoi</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>ting</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="252" eb="253">
+      <t>wei's'j</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>chu'f</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>yang't</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>fang'j</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>mian'ji</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>sha'f</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>d</t>
+    </rPh>
+    <rPh sb="338" eb="339">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="361" eb="362">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="363" eb="364">
+      <t>he</t>
+    </rPh>
+    <rPh sb="364" eb="365">
+      <t>fang'zhu</t>
+    </rPh>
+    <rPh sb="366" eb="367">
+      <t>yi'qi'zhu</t>
+    </rPh>
+    <rPh sb="371" eb="372">
+      <t>dai'b</t>
+    </rPh>
+    <rPh sb="373" eb="374">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="374" eb="375">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="379" eb="380">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="381" eb="382">
+      <t>yi'qi'hzu</t>
+    </rPh>
+    <rPh sb="491" eb="492">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="493" eb="494">
+      <t>d</t>
+    </rPh>
+    <rPh sb="494" eb="495">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="495" eb="496">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="496" eb="497">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="502" eb="503">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="505" eb="506">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="507" eb="508">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="508" eb="509">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="510" eb="511">
+      <t>d</t>
+    </rPh>
+    <rPh sb="515" eb="516">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="517" eb="518">
+      <t>zjong</t>
+    </rPh>
+    <rPh sb="522" eb="523">
+      <t>biao's</t>
+    </rPh>
+    <rPh sb="524" eb="525">
+      <t>chuang</t>
+    </rPh>
+    <rPh sb="525" eb="526">
+      <t>d</t>
+    </rPh>
+    <rPh sb="526" eb="527">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="535" eb="536">
+      <t>he</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>biao'shoi</t>
+    </rPh>
+    <rPh sb="543" eb="544">
+      <t>chuang</t>
+    </rPh>
+    <rPh sb="544" eb="545">
+      <t>d</t>
+    </rPh>
+    <rPh sb="545" eb="546">
+      <t>chaung'kuan</t>
+    </rPh>
+    <rPh sb="551" eb="552">
+      <t>biao'shoi</t>
+    </rPh>
+    <rPh sb="553" eb="554">
+      <t>zhe'hzong</t>
+    </rPh>
+    <rPh sb="555" eb="556">
+      <t>gui'g</t>
+    </rPh>
+    <rPh sb="557" eb="558">
+      <t>d</t>
+    </rPh>
+    <rPh sb="558" eb="559">
+      <t>chaung</t>
+    </rPh>
+    <rPh sb="559" eb="560">
+      <t>d</t>
+    </rPh>
+    <rPh sb="560" eb="561">
+      <t>shu'l</t>
+    </rPh>
+    <rPh sb="581" eb="582">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="583" eb="584">
+      <t>chuang'd</t>
+    </rPh>
+    <rPh sb="585" eb="586">
+      <t>geng'h</t>
+    </rPh>
+    <rPh sb="587" eb="588">
+      <t>d</t>
+    </rPh>
+    <rPh sb="588" eb="589">
+      <t>lei'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源描述的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone":"15512345678",
+"token":"ahfudahd",
+"roomId":"100001",
+"title": "标题",
+"description":"个性描述",
+"houseInfo":"内部情况",
+"trafficCondition":"交通情况",
+"surroundCondition":"周边情况"
+}</t>
+    <rPh sb="78" eb="79">
+      <t>biao'ti</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ge'xing</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>nei'bu</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>jiao'tong</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>zhou'bian</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHouseFacilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone":"15512345678",
+"token":"ahfudahd",
+"roomId":"100001",
+"bathroom": ["牙刷", "香皂"],
+"electricAppliances":["电视", "空调"],
+"facility":["无线网络", "暖气"],
+"claim":["允许吸烟", "允许做饭"]
+}</t>
+    <rPh sb="82" eb="83">
+      <t>ya'shua</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>xiang'zao</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>dian'hsi</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>kong'tiao</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>wu'xian'dian</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>wang'l</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>nua'q</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>yun'xu</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>xi'yan</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>yun'xu</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>zuo'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom 表示卫浴，electricAppliances表示电器，facility表示设施，claim表示要求，都是用数组的格式进行请求</t>
+    <rPh sb="9" eb="10">
+      <t>biao'sh'o</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei'yu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian'qi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>seh'shi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>biao'sh</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>yao'q</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>d</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>qing'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源配套设施的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei't</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源价格规则的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHousePriceRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone":"15512345678",
+"token":"ahfudahd",
+"roomId":"100001",
+"dailyPrice": 100,
+"deposit":100,
+"addGuest":0,
+"otherPrice":"其他费用说明"
+}</t>
+    <rPh sb="130" eb="131">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyPrice 每日的价格，int
+deposit 押金，int
+addGuest 是否可以加客人，0代表不可以，1代表可以，int
+otherPrice 表示其他费用说明，String</t>
+    <rPh sb="11" eb="12">
+      <t>mei'r</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ya'jin</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>bu'k'y</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>dai'baio</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>biao'shi</t>
+    </rPh>
     <rPh sb="83" eb="84">
-      <t>ju't</t>
+      <t>qi't</t>
     </rPh>
     <rPh sb="85" eb="86">
-      <t>d</t>
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源规则要求的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHouseRuleRequirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone":"15512345678",
+"token":"ahfudahd",
+"roomId":"100001",
+"tradingRules": "交易规则",
+"breakContact":["若距入住日中午14：00大于等于1天（1*24小时），订金全额退还。", "若距入住日中午14：00大于等于1天（1*24小时），订金全额退还。"],
+"leastDay":1,
+"mostDay":7,
+"receiveOutside":0,
+"otherRequirement":"其他要求",
+"tip":"其他贴士"
+}</t>
+    <rPh sb="85" eb="86">
+      <t>jiao'y</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="252" eb="253">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>tie'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradingRules为交易规则，String
+breakContact 为违约责任，String数组
+leastDay 为最少的入住天数，int
+mostDay 为最多的入住天数，int
+receiveOutside 为是否接待境外人士，0表示不接受，1表示接受，int
+otherRequirement表示其他要求，String
+tip 其他贴士，String</t>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiao'yi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wei'yue</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ze'r</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zui's</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>d</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ru'zhu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>tian'shu</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zui'duo</t>
     </rPh>
     <rPh sb="86" eb="87">
-      <t>dui'ying</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>guang'x</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ru'xia</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>dia'biao</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>zheng't</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>chu'zu</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>du'li'dan'j</t>
+      <t>d</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ru'zh</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>tian'shu</t>
     </rPh>
     <rPh sb="111" eb="112">
-      <t>chuang'w</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>chu'zu</t>
+      <t>wei</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>jie'dai</t>
     </rPh>
     <rPh sb="116" eb="117">
-      <t>sha'f</t>
+      <t>jing'wai</t>
     </rPh>
     <rPh sb="118" eb="119">
-      <t>chu'zu</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>d</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>chu'zu</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>lei'x</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>d</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>wen'b</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>miao'sh</t>
-    </rPh>
-    <rPh sb="157" eb="158">
+      <t>ren'shi</t>
+    </rPh>
+    <rPh sb="122" eb="123">
       <t>biao'shi</t>
     </rPh>
-    <rPh sb="159" eb="160">
-      <t>shi'he</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>zhu</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>d</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>ren'shu</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>biao'shi'o</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>d</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ge'shu</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>biao'shoi</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ting</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ge'shu</t>
-    </rPh>
-    <rPh sb="223" eb="224">
-      <t>wei's'j</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>ge'shu</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>chu'f</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>ge'shu</t>
-    </rPh>
-    <rPh sb="267" eb="268">
-      <t>yang't</t>
-    </rPh>
-    <rPh sb="269" eb="270">
-      <t>ge'shu</t>
-    </rPh>
-    <rPh sb="287" eb="288">
-      <t>fang'j</t>
-    </rPh>
-    <rPh sb="289" eb="290">
-      <t>mian'ji</t>
-    </rPh>
-    <rPh sb="306" eb="307">
-      <t>sha'f</t>
-    </rPh>
-    <rPh sb="308" eb="309">
-      <t>d</t>
-    </rPh>
-    <rPh sb="309" eb="310">
-      <t>shu'liang</t>
-    </rPh>
-    <rPh sb="332" eb="333">
-      <t>shi'f</t>
-    </rPh>
-    <rPh sb="334" eb="335">
-      <t>he</t>
-    </rPh>
-    <rPh sb="335" eb="336">
-      <t>fang'zhu</t>
-    </rPh>
-    <rPh sb="337" eb="338">
-      <t>yi'qi'zhu</t>
-    </rPh>
-    <rPh sb="342" eb="343">
-      <t>dai'b</t>
-    </rPh>
-    <rPh sb="344" eb="345">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="345" eb="346">
-      <t>yi'qi</t>
-    </rPh>
-    <rPh sb="347" eb="348">
-      <t>zhu</t>
-    </rPh>
-    <rPh sb="350" eb="351">
-      <t>dai'biao</t>
-    </rPh>
-    <rPh sb="352" eb="353">
-      <t>yi'qi'hzu</t>
-    </rPh>
-    <rPh sb="462" eb="463">
-      <t>dui'ying</t>
-    </rPh>
-    <rPh sb="464" eb="465">
-      <t>d</t>
-    </rPh>
-    <rPh sb="465" eb="466">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="466" eb="467">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="467" eb="468">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="473" eb="474">
-      <t>shu'zu</t>
-    </rPh>
-    <rPh sb="476" eb="477">
-      <t>shu'zu</t>
-    </rPh>
-    <rPh sb="478" eb="479">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="479" eb="480">
-      <t>dui'ying</t>
-    </rPh>
-    <rPh sb="481" eb="482">
-      <t>d</t>
-    </rPh>
-    <rPh sb="486" eb="487">
-      <t>dui'xiang</t>
-    </rPh>
-    <rPh sb="488" eb="489">
-      <t>zjong</t>
-    </rPh>
-    <rPh sb="493" eb="494">
-      <t>biao's</t>
-    </rPh>
-    <rPh sb="495" eb="496">
-      <t>chuang</t>
-    </rPh>
-    <rPh sb="496" eb="497">
-      <t>d</t>
-    </rPh>
-    <rPh sb="497" eb="498">
-      <t>lei'x</t>
-    </rPh>
-    <rPh sb="506" eb="507">
-      <t>he</t>
-    </rPh>
-    <rPh sb="512" eb="513">
-      <t>biao'shoi</t>
-    </rPh>
-    <rPh sb="514" eb="515">
-      <t>chuang</t>
-    </rPh>
-    <rPh sb="515" eb="516">
-      <t>d</t>
-    </rPh>
-    <rPh sb="516" eb="517">
-      <t>chaung'kuan</t>
-    </rPh>
-    <rPh sb="522" eb="523">
-      <t>biao'shoi</t>
-    </rPh>
-    <rPh sb="524" eb="525">
-      <t>zhe'hzong</t>
-    </rPh>
-    <rPh sb="526" eb="527">
-      <t>gui'g</t>
-    </rPh>
-    <rPh sb="528" eb="529">
-      <t>d</t>
-    </rPh>
-    <rPh sb="529" eb="530">
-      <t>chaung</t>
-    </rPh>
-    <rPh sb="530" eb="531">
-      <t>d</t>
-    </rPh>
-    <rPh sb="531" eb="532">
-      <t>shu'l</t>
-    </rPh>
-    <rPh sb="552" eb="553">
-      <t>biao'shi'o</t>
-    </rPh>
-    <rPh sb="554" eb="555">
-      <t>chuang'd</t>
-    </rPh>
-    <rPh sb="556" eb="557">
-      <t>geng'h</t>
-    </rPh>
-    <rPh sb="558" eb="559">
-      <t>d</t>
-    </rPh>
-    <rPh sb="559" eb="560">
-      <t>lei'bie</t>
+    <rPh sb="124" eb="125">
+      <t>bu'jie's</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>jie's</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>tie'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建房源信息接口</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/createHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userPhone": "15512345678",
+"token":"sdfahdu"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"创建成功",
+"content":{"roomId": "100001"}
+}</t>
+    <rPh sb="23" eb="24">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng'g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1326,7 +1836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,6 +1876,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2568,18 +3084,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="17" style="12" customWidth="1"/>
-    <col min="3" max="3" width="35" style="12" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="12"/>
     <col min="5" max="5" width="47.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="43.83203125" style="13" customWidth="1"/>
@@ -2624,7 +3140,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -2647,7 +3163,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -2661,62 +3177,158 @@
         <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="185" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>44</v>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="房客" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>注册接口</t>
     <rPh sb="0" eb="1">
@@ -38,14 +39,14 @@
     <rPh sb="2" eb="3">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
       <t>mo'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口描述</t>
@@ -55,35 +56,35 @@
     <rPh sb="2" eb="3">
       <t>miao's</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
     <rPh sb="0" eb="1">
       <t>can's</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回</t>
     <rPh sb="0" eb="1">
       <t>fan'hui</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
     <rPh sb="0" eb="1">
       <t>shuo'ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口</t>
     <rPh sb="0" eb="1">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户模块</t>
@@ -93,7 +94,7 @@
     <rPh sb="2" eb="3">
       <t>mo'kuai</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 参数password是通过md5加密的
@@ -137,7 +138,7 @@
     <rPh sb="43" eb="44">
       <t>d</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>登录接口</t>
@@ -147,11 +148,11 @@
     <rPh sb="2" eb="3">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请求方法</t>
@@ -161,15 +162,15 @@
     <rPh sb="2" eb="3">
       <t>fang'fa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/user/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改用户信息接口</t>
@@ -185,18 +186,18 @@
     <rPh sb="6" eb="7">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/user/modifyUserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 "userPhone": "1111",
 "password":"dsihias"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -214,7 +215,7 @@
     <rPh sb="63" eb="64">
       <t>xing'bie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>登录注册模块</t>
@@ -227,11 +228,11 @@
     <rPh sb="4" eb="5">
       <t>mo'kuai</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注：
@@ -381,7 +382,7 @@
     <rPh sb="164" eb="165">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注：
@@ -531,7 +532,7 @@
     <rPh sb="163" eb="164">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -539,7 +540,7 @@
 "message":"register success",
 "content":"token"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -547,7 +548,7 @@
 "message":"login success",
 "content":"token"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>密码password必须在客户端或前端进行md5加密后请求接口</t>
@@ -584,7 +585,7 @@
     <rPh sb="29" eb="30">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>登录接口</t>
@@ -594,7 +595,7 @@
     <rPh sb="2" eb="3">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发布房源模块</t>
@@ -607,7 +608,7 @@
     <rPh sb="4" eb="5">
       <t>mo'kuai</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取房东房源地址接口</t>
@@ -626,28 +627,15 @@
     <rPh sb="8" eb="9">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>house/user/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>house/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userPhone": "15512345612",
-"password":"dsihias"
-}</t>
-  </si>
-  <si>
-    <t>{
-"userPhone": "15512345678",
-"token":"sdfahdu"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>content字段中也是个Json数组对象，包含了位置信息</t>
@@ -684,11 +672,11 @@
     <rPh sb="27" eb="28">
       <t>xin'x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>house/publish/getAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -729,7 +717,7 @@
     <rPh sb="71" eb="72">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新增房东房源地址的接口</t>
@@ -751,31 +739,11 @@
     <rPh sb="9" eb="10">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>house/publish/addAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userPhone": "15512345678",
-"token":"sdfahdu",
-"address":"广州市天河区中山大道"
-}</t>
-    <rPh sb="60" eb="61">
-      <t>guang'zhou'shi</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>tian'he'qu</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>zhogn'shan</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>da'dao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -789,7 +757,7 @@
     <rPh sb="25" eb="26">
       <t>cheng'g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>保存房源基本情况接口</t>
@@ -808,11 +776,11 @@
     <rPh sb="8" eb="9">
       <t>jie'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>house/publish/saveHouseBaseInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -826,11 +794,437 @@
     <rPh sb="25" eb="26">
       <t>cheng'g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHouseDescription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源描述的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHouseFacilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom 表示卫浴，electricAppliances表示电器，facility表示设施，claim表示要求，都是用数组的格式进行请求</t>
+    <rPh sb="9" eb="10">
+      <t>biao'sh'o</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei'yu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian'qi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>biao'shi'o</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>seh'shi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>biao'sh</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>yao'q</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>d</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>qing'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源配套设施的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei't</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源价格规则的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gui'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHousePriceRule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyPrice 每日的价格，int
+deposit 押金，int
+addGuest 是否可以加客人，0代表不可以，1代表可以，int
+otherPrice 表示其他费用说明，String</t>
+    <rPh sb="11" eb="12">
+      <t>mei'r</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ya'jin</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>dai'biao</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>bu'k'y</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>dai'baio</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源规则要求的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveHouseRuleRequirement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradingRules为交易规则，String
+breakContact 为违约责任，String数组
+leastDay 为最少的入住天数，int
+mostDay 为最多的入住天数，int
+receiveOutside 为是否接待境外人士，0表示不接受，1表示接受，int
+otherRequirement表示其他要求，String
+tip 其他贴士，String</t>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiao'yi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wei'yue</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ze'r</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zui's</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>d</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ru'zhu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>tian'shu</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zui'duo</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>d</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ru'zh</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>tian'shu</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>jie'dai</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>jing'wai</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ren'shi</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>bu'jie's</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>jie's</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>tie'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-"userPhone":"15512345678",
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建房源信息接口</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'yua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/createHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"创建成功",
+"content":{"roomId": "100001"}
+}</t>
+    <rPh sb="23" eb="24">
+      <t>chuang'j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存房源图片的接口</t>
+    <rPh sb="0" eb="1">
+      <t>bao'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house/publish/saveImages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>images 对应的是String数组，对应的是image的url</t>
+    <rPh sb="7" eb="8">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu'zu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"phoneNumber": "15512345612",
+"password":"dsihias"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"phoneNumber": "15512345678",
+"token":"sdfahdu"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"phoneNumber": "15512345678",
+"token":"sdfahdu",
+"address":"广州市天河区中山大道"
+}</t>
+    <rPh sb="62" eb="63">
+      <t>guang'zhou'shi</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tian'he'qu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>zhogn'shan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>da'dao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"phoneNumber":"15512345678",
 "token":"ahfudahd",
 "roomId":"100001",
 "address":"广州市天河区中山大道",
@@ -851,36 +1245,32 @@
 ],
 "replaceBedSheet":"每日一换"
 }</t>
-    <rPh sb="126" eb="127">
+    <rPh sb="128" eb="129">
       <t>zheng'tao</t>
     </rPh>
-    <rPh sb="128" eb="129">
+    <rPh sb="130" eb="131">
       <t>chu'z</t>
     </rPh>
-    <rPh sb="288" eb="289">
+    <rPh sb="290" eb="291">
       <t>shuang'ren'c</t>
     </rPh>
-    <rPh sb="333" eb="334">
+    <rPh sb="335" eb="336">
       <t>dan</t>
     </rPh>
-    <rPh sb="390" eb="391">
+    <rPh sb="392" eb="393">
       <t>mei'ri</t>
     </rPh>
-    <rPh sb="392" eb="393">
+    <rPh sb="394" eb="395">
       <t>yi'huan</t>
     </rPh>
-    <rPh sb="393" eb="394">
+    <rPh sb="395" eb="396">
       <t>huan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house/publish/saveHouseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参数的说明：
-userPhone和token为当前房东登录后获得的凭证
+phoneNumber和token为当前房东登录后获得的凭证
 roomId是在创建发布房源时产生的id，int
 address是对应要发布房源的具体位置描述
 rentalType为出租类型，用int对应具体的类型，具体的对应关系如下：
@@ -910,396 +1300,377 @@
     <rPh sb="3" eb="4">
       <t>shuo'ming</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="18" eb="19">
       <t>he</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="24" eb="25">
       <t>wei</t>
     </rPh>
-    <rPh sb="23" eb="24">
+    <rPh sb="25" eb="26">
       <t>dang'q</t>
     </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="27" eb="28">
       <t>fang'don</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="29" eb="30">
       <t>deng'l</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="31" eb="32">
       <t>hou</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="32" eb="33">
       <t>huo'd</t>
     </rPh>
-    <rPh sb="32" eb="33">
-      <t>d</t>
-    </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="34" eb="35">
+      <t>d</t>
+    </rPh>
+    <rPh sb="35" eb="36">
       <t>ping'z</t>
     </rPh>
-    <rPh sb="42" eb="43">
+    <rPh sb="44" eb="45">
       <t>shi</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="45" eb="46">
       <t>zai</t>
     </rPh>
-    <rPh sb="44" eb="45">
+    <rPh sb="46" eb="47">
       <t>chuang'j</t>
     </rPh>
-    <rPh sb="46" eb="47">
+    <rPh sb="48" eb="49">
       <t>fa'bu</t>
     </rPh>
-    <rPh sb="48" eb="49">
+    <rPh sb="50" eb="51">
       <t>fang'y</t>
     </rPh>
-    <rPh sb="50" eb="51">
+    <rPh sb="52" eb="53">
       <t>shi</t>
     </rPh>
-    <rPh sb="51" eb="52">
+    <rPh sb="53" eb="54">
       <t>chan's</t>
     </rPh>
-    <rPh sb="53" eb="54">
-      <t>d</t>
-    </rPh>
-    <rPh sb="68" eb="69">
+    <rPh sb="55" eb="56">
+      <t>d</t>
+    </rPh>
+    <rPh sb="70" eb="71">
       <t>shi</t>
     </rPh>
-    <rPh sb="69" eb="70">
+    <rPh sb="71" eb="72">
       <t>dui'ying</t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="73" eb="74">
       <t>yao</t>
     </rPh>
-    <rPh sb="72" eb="73">
+    <rPh sb="74" eb="75">
       <t>fa'bu</t>
     </rPh>
-    <rPh sb="74" eb="75">
+    <rPh sb="76" eb="77">
       <t>fang'yuan</t>
     </rPh>
-    <rPh sb="76" eb="77">
-      <t>d</t>
-    </rPh>
-    <rPh sb="77" eb="78">
+    <rPh sb="78" eb="79">
+      <t>d</t>
+    </rPh>
+    <rPh sb="79" eb="80">
       <t>ju't</t>
     </rPh>
-    <rPh sb="79" eb="80">
+    <rPh sb="81" eb="82">
       <t>wei'z</t>
     </rPh>
-    <rPh sb="81" eb="82">
+    <rPh sb="83" eb="84">
       <t>miao's</t>
     </rPh>
-    <rPh sb="94" eb="95">
+    <rPh sb="96" eb="97">
       <t>wei</t>
     </rPh>
-    <rPh sb="95" eb="96">
+    <rPh sb="97" eb="98">
       <t>chu'z</t>
     </rPh>
-    <rPh sb="97" eb="98">
+    <rPh sb="99" eb="100">
       <t>lei'x</t>
     </rPh>
-    <rPh sb="100" eb="101">
+    <rPh sb="102" eb="103">
       <t>yong</t>
     </rPh>
-    <rPh sb="104" eb="105">
+    <rPh sb="106" eb="107">
       <t>dui'ying</t>
     </rPh>
-    <rPh sb="106" eb="107">
+    <rPh sb="108" eb="109">
       <t>ju't</t>
     </rPh>
-    <rPh sb="108" eb="109">
-      <t>d</t>
-    </rPh>
-    <rPh sb="109" eb="110">
+    <rPh sb="110" eb="111">
+      <t>d</t>
+    </rPh>
+    <rPh sb="111" eb="112">
       <t>lei'x</t>
     </rPh>
-    <rPh sb="112" eb="113">
+    <rPh sb="114" eb="115">
       <t>ju't</t>
     </rPh>
-    <rPh sb="114" eb="115">
-      <t>d</t>
-    </rPh>
-    <rPh sb="115" eb="116">
+    <rPh sb="116" eb="117">
+      <t>d</t>
+    </rPh>
+    <rPh sb="117" eb="118">
       <t>dui'ying</t>
     </rPh>
-    <rPh sb="117" eb="118">
+    <rPh sb="119" eb="120">
       <t>guang'x</t>
     </rPh>
-    <rPh sb="119" eb="120">
+    <rPh sb="121" eb="122">
       <t>ru'xia</t>
     </rPh>
-    <rPh sb="127" eb="128">
+    <rPh sb="129" eb="130">
       <t>dia'biao</t>
     </rPh>
-    <rPh sb="130" eb="131">
+    <rPh sb="132" eb="133">
       <t>zheng't</t>
     </rPh>
-    <rPh sb="132" eb="133">
+    <rPh sb="134" eb="135">
       <t>chu'zu</t>
     </rPh>
-    <rPh sb="135" eb="136">
+    <rPh sb="137" eb="138">
       <t>du'li'dan'j</t>
     </rPh>
-    <rPh sb="140" eb="141">
+    <rPh sb="142" eb="143">
       <t>chuang'w</t>
     </rPh>
-    <rPh sb="142" eb="143">
+    <rPh sb="144" eb="145">
       <t>chu'zu</t>
     </rPh>
-    <rPh sb="145" eb="146">
+    <rPh sb="147" eb="148">
       <t>sha'f</t>
     </rPh>
-    <rPh sb="147" eb="148">
+    <rPh sb="149" eb="150">
       <t>chu'zu</t>
     </rPh>
-    <rPh sb="164" eb="165">
+    <rPh sb="166" eb="167">
       <t>zhi</t>
     </rPh>
-    <rPh sb="165" eb="166">
-      <t>d</t>
-    </rPh>
-    <rPh sb="166" eb="167">
+    <rPh sb="167" eb="168">
+      <t>d</t>
+    </rPh>
+    <rPh sb="168" eb="169">
       <t>shi</t>
     </rPh>
-    <rPh sb="167" eb="168">
+    <rPh sb="169" eb="170">
       <t>chu'zu</t>
     </rPh>
-    <rPh sb="169" eb="170">
+    <rPh sb="171" eb="172">
       <t>lei'x</t>
     </rPh>
-    <rPh sb="171" eb="172">
-      <t>d</t>
-    </rPh>
-    <rPh sb="172" eb="173">
+    <rPh sb="173" eb="174">
+      <t>d</t>
+    </rPh>
+    <rPh sb="174" eb="175">
       <t>wen'b</t>
     </rPh>
-    <rPh sb="174" eb="175">
+    <rPh sb="176" eb="177">
       <t>miao'sh</t>
     </rPh>
-    <rPh sb="186" eb="187">
+    <rPh sb="188" eb="189">
       <t>biao'shi</t>
     </rPh>
-    <rPh sb="188" eb="189">
+    <rPh sb="190" eb="191">
       <t>shi'he</t>
     </rPh>
-    <rPh sb="190" eb="191">
+    <rPh sb="192" eb="193">
       <t>zhu</t>
     </rPh>
-    <rPh sb="191" eb="192">
-      <t>d</t>
-    </rPh>
-    <rPh sb="192" eb="193">
+    <rPh sb="193" eb="194">
+      <t>d</t>
+    </rPh>
+    <rPh sb="194" eb="195">
       <t>ren'shu</t>
     </rPh>
-    <rPh sb="208" eb="209">
+    <rPh sb="210" eb="211">
       <t>biao'shi'o</t>
     </rPh>
-    <rPh sb="210" eb="211">
+    <rPh sb="212" eb="213">
       <t>shi</t>
     </rPh>
-    <rPh sb="211" eb="212">
-      <t>d</t>
-    </rPh>
-    <rPh sb="212" eb="213">
+    <rPh sb="213" eb="214">
+      <t>d</t>
+    </rPh>
+    <rPh sb="214" eb="215">
       <t>ge'shu</t>
     </rPh>
-    <rPh sb="228" eb="229">
+    <rPh sb="230" eb="231">
       <t>biao'shoi</t>
     </rPh>
-    <rPh sb="230" eb="231">
+    <rPh sb="232" eb="233">
       <t>ting</t>
     </rPh>
-    <rPh sb="231" eb="232">
+    <rPh sb="233" eb="234">
       <t>ge'shu</t>
     </rPh>
-    <rPh sb="252" eb="253">
+    <rPh sb="254" eb="255">
       <t>wei's'j</t>
     </rPh>
-    <rPh sb="253" eb="254">
+    <rPh sb="255" eb="256">
       <t>shi</t>
     </rPh>
-    <rPh sb="254" eb="255">
+    <rPh sb="256" eb="257">
       <t>ge'shu</t>
     </rPh>
-    <rPh sb="274" eb="275">
+    <rPh sb="276" eb="277">
       <t>chu'f</t>
     </rPh>
-    <rPh sb="276" eb="277">
+    <rPh sb="278" eb="279">
       <t>ge'shu</t>
     </rPh>
-    <rPh sb="296" eb="297">
+    <rPh sb="298" eb="299">
       <t>yang't</t>
     </rPh>
-    <rPh sb="298" eb="299">
+    <rPh sb="300" eb="301">
       <t>ge'shu</t>
     </rPh>
-    <rPh sb="316" eb="317">
+    <rPh sb="318" eb="319">
       <t>fang'j</t>
     </rPh>
-    <rPh sb="318" eb="319">
+    <rPh sb="320" eb="321">
       <t>mian'ji</t>
     </rPh>
-    <rPh sb="335" eb="336">
+    <rPh sb="337" eb="338">
       <t>sha'f</t>
     </rPh>
-    <rPh sb="337" eb="338">
-      <t>d</t>
-    </rPh>
-    <rPh sb="338" eb="339">
+    <rPh sb="339" eb="340">
+      <t>d</t>
+    </rPh>
+    <rPh sb="340" eb="341">
       <t>shu'liang</t>
     </rPh>
-    <rPh sb="361" eb="362">
+    <rPh sb="363" eb="364">
       <t>shi'f</t>
     </rPh>
-    <rPh sb="363" eb="364">
+    <rPh sb="365" eb="366">
       <t>he</t>
     </rPh>
-    <rPh sb="364" eb="365">
+    <rPh sb="366" eb="367">
       <t>fang'zhu</t>
     </rPh>
-    <rPh sb="366" eb="367">
+    <rPh sb="368" eb="369">
       <t>yi'qi'zhu</t>
     </rPh>
-    <rPh sb="371" eb="372">
+    <rPh sb="373" eb="374">
       <t>dai'b</t>
     </rPh>
-    <rPh sb="373" eb="374">
+    <rPh sb="375" eb="376">
       <t>bu</t>
     </rPh>
-    <rPh sb="374" eb="375">
+    <rPh sb="376" eb="377">
       <t>yi'qi</t>
     </rPh>
-    <rPh sb="376" eb="377">
+    <rPh sb="378" eb="379">
       <t>zhu</t>
     </rPh>
-    <rPh sb="379" eb="380">
+    <rPh sb="381" eb="382">
       <t>dai'biao</t>
     </rPh>
-    <rPh sb="381" eb="382">
+    <rPh sb="383" eb="384">
       <t>yi'qi'hzu</t>
     </rPh>
-    <rPh sb="491" eb="492">
+    <rPh sb="493" eb="494">
       <t>dui'ying</t>
     </rPh>
-    <rPh sb="493" eb="494">
-      <t>d</t>
-    </rPh>
-    <rPh sb="494" eb="495">
+    <rPh sb="495" eb="496">
+      <t>d</t>
+    </rPh>
+    <rPh sb="496" eb="497">
       <t>zhi</t>
     </rPh>
-    <rPh sb="495" eb="496">
+    <rPh sb="497" eb="498">
       <t>shi</t>
     </rPh>
-    <rPh sb="496" eb="497">
+    <rPh sb="498" eb="499">
       <t>yi'ge</t>
     </rPh>
-    <rPh sb="502" eb="503">
+    <rPh sb="504" eb="505">
       <t>shu'zu</t>
     </rPh>
-    <rPh sb="505" eb="506">
+    <rPh sb="507" eb="508">
       <t>shu'zu</t>
     </rPh>
-    <rPh sb="507" eb="508">
+    <rPh sb="509" eb="510">
       <t>zhong</t>
     </rPh>
-    <rPh sb="508" eb="509">
+    <rPh sb="510" eb="511">
       <t>dui'ying</t>
     </rPh>
-    <rPh sb="510" eb="511">
-      <t>d</t>
-    </rPh>
-    <rPh sb="515" eb="516">
+    <rPh sb="512" eb="513">
+      <t>d</t>
+    </rPh>
+    <rPh sb="517" eb="518">
       <t>dui'xiang</t>
     </rPh>
-    <rPh sb="517" eb="518">
+    <rPh sb="519" eb="520">
       <t>zjong</t>
     </rPh>
-    <rPh sb="522" eb="523">
+    <rPh sb="524" eb="525">
       <t>biao's</t>
     </rPh>
-    <rPh sb="524" eb="525">
+    <rPh sb="526" eb="527">
       <t>chuang</t>
     </rPh>
-    <rPh sb="525" eb="526">
-      <t>d</t>
-    </rPh>
-    <rPh sb="526" eb="527">
+    <rPh sb="527" eb="528">
+      <t>d</t>
+    </rPh>
+    <rPh sb="528" eb="529">
       <t>lei'x</t>
     </rPh>
-    <rPh sb="535" eb="536">
+    <rPh sb="537" eb="538">
       <t>he</t>
     </rPh>
-    <rPh sb="541" eb="542">
+    <rPh sb="543" eb="544">
       <t>biao'shoi</t>
     </rPh>
-    <rPh sb="543" eb="544">
+    <rPh sb="545" eb="546">
       <t>chuang</t>
     </rPh>
-    <rPh sb="544" eb="545">
-      <t>d</t>
-    </rPh>
-    <rPh sb="545" eb="546">
+    <rPh sb="546" eb="547">
+      <t>d</t>
+    </rPh>
+    <rPh sb="547" eb="548">
       <t>chaung'kuan</t>
     </rPh>
-    <rPh sb="551" eb="552">
+    <rPh sb="553" eb="554">
       <t>biao'shoi</t>
     </rPh>
-    <rPh sb="553" eb="554">
+    <rPh sb="555" eb="556">
       <t>zhe'hzong</t>
     </rPh>
-    <rPh sb="555" eb="556">
+    <rPh sb="557" eb="558">
       <t>gui'g</t>
     </rPh>
-    <rPh sb="557" eb="558">
-      <t>d</t>
-    </rPh>
-    <rPh sb="558" eb="559">
+    <rPh sb="559" eb="560">
+      <t>d</t>
+    </rPh>
+    <rPh sb="560" eb="561">
       <t>chaung</t>
     </rPh>
-    <rPh sb="559" eb="560">
-      <t>d</t>
-    </rPh>
-    <rPh sb="560" eb="561">
+    <rPh sb="561" eb="562">
+      <t>d</t>
+    </rPh>
+    <rPh sb="562" eb="563">
       <t>shu'l</t>
     </rPh>
-    <rPh sb="581" eb="582">
+    <rPh sb="583" eb="584">
       <t>biao'shi'o</t>
     </rPh>
-    <rPh sb="583" eb="584">
+    <rPh sb="585" eb="586">
       <t>chuang'd</t>
     </rPh>
-    <rPh sb="585" eb="586">
+    <rPh sb="587" eb="588">
       <t>geng'h</t>
     </rPh>
-    <rPh sb="587" eb="588">
-      <t>d</t>
-    </rPh>
-    <rPh sb="588" eb="589">
+    <rPh sb="589" eb="590">
+      <t>d</t>
+    </rPh>
+    <rPh sb="590" eb="591">
       <t>lei'bie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存房源描述的接口</t>
-    <rPh sb="0" eb="1">
-      <t>bao'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>miao's</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jie'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-"userPhone":"15512345678",
+"phoneNumber":"15512345678",
 "token":"ahfudahd",
 "roomId":"100001",
 "title": "标题",
@@ -1308,42 +1679,38 @@
 "trafficCondition":"交通情况",
 "surroundCondition":"周边情况"
 }</t>
-    <rPh sb="78" eb="79">
+    <rPh sb="80" eb="81">
       <t>biao'ti</t>
     </rPh>
-    <rPh sb="98" eb="99">
+    <rPh sb="100" eb="101">
       <t>ge'xing</t>
     </rPh>
-    <rPh sb="100" eb="101">
+    <rPh sb="102" eb="103">
       <t>miao's</t>
     </rPh>
-    <rPh sb="118" eb="119">
+    <rPh sb="120" eb="121">
       <t>nei'bu</t>
     </rPh>
-    <rPh sb="120" eb="121">
+    <rPh sb="122" eb="123">
       <t>qing'k</t>
     </rPh>
-    <rPh sb="145" eb="146">
+    <rPh sb="147" eb="148">
       <t>jiao'tong</t>
     </rPh>
-    <rPh sb="147" eb="148">
+    <rPh sb="149" eb="150">
       <t>qing'k</t>
     </rPh>
-    <rPh sb="173" eb="174">
+    <rPh sb="175" eb="176">
       <t>zhou'bian</t>
     </rPh>
-    <rPh sb="175" eb="176">
+    <rPh sb="177" eb="178">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house/publish/saveHouseFacilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-"userPhone":"15512345678",
+"phoneNumber":"15512345678",
 "token":"ahfudahd",
 "roomId":"100001",
 "bathroom": ["牙刷", "香皂"],
@@ -1351,141 +1718,44 @@
 "facility":["无线网络", "暖气"],
 "claim":["允许吸烟", "允许做饭"]
 }</t>
-    <rPh sb="82" eb="83">
+    <rPh sb="84" eb="85">
       <t>ya'shua</t>
     </rPh>
-    <rPh sb="88" eb="89">
+    <rPh sb="90" eb="91">
       <t>xiang'zao</t>
     </rPh>
-    <rPh sb="117" eb="118">
+    <rPh sb="119" eb="120">
       <t>dian'hsi</t>
     </rPh>
-    <rPh sb="123" eb="124">
+    <rPh sb="125" eb="126">
       <t>kong'tiao</t>
     </rPh>
-    <rPh sb="142" eb="143">
+    <rPh sb="144" eb="145">
       <t>wu'xian'dian</t>
     </rPh>
-    <rPh sb="144" eb="145">
+    <rPh sb="146" eb="147">
       <t>wang'l</t>
     </rPh>
-    <rPh sb="150" eb="151">
+    <rPh sb="152" eb="153">
       <t>nua'q</t>
     </rPh>
-    <rPh sb="166" eb="167">
+    <rPh sb="168" eb="169">
       <t>yun'xu</t>
     </rPh>
-    <rPh sb="168" eb="169">
+    <rPh sb="170" eb="171">
       <t>xi'yan</t>
     </rPh>
-    <rPh sb="174" eb="175">
+    <rPh sb="176" eb="177">
       <t>yun'xu</t>
     </rPh>
-    <rPh sb="176" eb="177">
+    <rPh sb="178" eb="179">
       <t>zuo'fan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bathroom 表示卫浴，electricAppliances表示电器，facility表示设施，claim表示要求，都是用数组的格式进行请求</t>
-    <rPh sb="9" eb="10">
-      <t>biao'sh'o</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wei'yu</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>biao'shi'o</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>dian'qi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>biao'shi'o</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>seh'shi</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>biao'sh</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>yao'q</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>dou'shi</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>shu'zu</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>d</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ge'shi</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>jin'x</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>qing'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存房源配套设施的接口</t>
-    <rPh sb="0" eb="1">
-      <t>bao'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pei't</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>she'shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存房源价格规则的接口</t>
-    <rPh sb="0" eb="1">
-      <t>bao'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jia'g</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gui'ze</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house/publish/saveHousePriceRule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-"userPhone":"15512345678",
+"phoneNumber":"15512345678",
 "token":"ahfudahd",
 "roomId":"100001",
 "dailyPrice": 100,
@@ -1493,95 +1763,20 @@
 "addGuest":0,
 "otherPrice":"其他费用说明"
 }</t>
-    <rPh sb="130" eb="131">
+    <rPh sb="132" eb="133">
       <t>qi'ta</t>
     </rPh>
-    <rPh sb="132" eb="133">
+    <rPh sb="134" eb="135">
       <t>fei'yong</t>
     </rPh>
-    <rPh sb="134" eb="135">
+    <rPh sb="136" eb="137">
       <t>shuo'ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyPrice 每日的价格，int
-deposit 押金，int
-addGuest 是否可以加客人，0代表不可以，1代表可以，int
-otherPrice 表示其他费用说明，String</t>
-    <rPh sb="11" eb="12">
-      <t>mei'r</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>d</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jia'ge</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ya'jin</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>k'y</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>dai'biao</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>bu'k'y</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>dai'baio</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>k'y</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>biao'shi</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>qi't</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>fei'yong</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>shuo'ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存房源规则要求的接口</t>
-    <rPh sb="0" eb="1">
-      <t>bao'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gui'z</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house/publish/saveHouseRuleRequirement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-"userPhone":"15512345678",
+"phoneNumber":"15512345678",
 "token":"ahfudahd",
 "roomId":"100001",
 "tradingRules": "交易规则",
@@ -1592,181 +1787,52 @@
 "otherRequirement":"其他要求",
 "tip":"其他贴士"
 }</t>
-    <rPh sb="85" eb="86">
+    <rPh sb="87" eb="88">
       <t>jiao'y</t>
     </rPh>
-    <rPh sb="87" eb="88">
+    <rPh sb="89" eb="90">
       <t>gui'z</t>
     </rPh>
-    <rPh sb="252" eb="253">
+    <rPh sb="254" eb="255">
       <t>qi't</t>
     </rPh>
-    <rPh sb="254" eb="255">
+    <rPh sb="256" eb="257">
       <t>yao'qiu</t>
     </rPh>
-    <rPh sb="266" eb="267">
+    <rPh sb="268" eb="269">
       <t>qi't</t>
     </rPh>
-    <rPh sb="268" eb="269">
+    <rPh sb="270" eb="271">
       <t>tie'shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradingRules为交易规则，String
-breakContact 为违约责任，String数组
-leastDay 为最少的入住天数，int
-mostDay 为最多的入住天数，int
-receiveOutside 为是否接待境外人士，0表示不接受，1表示接受，int
-otherRequirement表示其他要求，String
-tip 其他贴士，String</t>
-    <rPh sb="12" eb="13">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jiao'yi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gui'z</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>wei'yue</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ze'r</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>shu'zu</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>zui's</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>d</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ru'zhu</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>tian'shu</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>zui'duo</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>d</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ru'zh</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>tian'shu</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>shi'f</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>jie'dai</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>jing'wai</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ren'shi</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>biao'shi</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>bu'jie's</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>biao'shi</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>jie's</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>biao'shi</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>qi't</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>qi't</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>tie'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
+"phoneNumber":"15512345678",
+"token":"ahfudahd",
+"roomId":"100001",
+"images":["https://image.xiaozhustatic1.com/12/12,0,48,28845,1800,1200,0beb510c.jpg", "https://image.xiaozhustatic1.com/12/12,0,48,28845,1800,1200,0beb510c.jpg", "https://image.xiaozhustatic1.com/12/12,0,48,28845,1800,1200,0beb510c.jpg"]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建房源信息接口</t>
-    <rPh sb="0" eb="1">
-      <t>chuang'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'yua</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xin'x</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house/publish/createHouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userPhone": "15512345678",
-"token":"sdfahdu"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"code":1,
-"message":"创建成功",
-"content":{"roomId": "100001"}
-}</t>
-    <rPh sb="23" eb="24">
-      <t>chuang'j</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1833,10 +1899,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1883,9 +1950,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3076,7 +3147,7 @@
       <c r="G94" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3084,11 +3155,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3140,7 +3211,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -3163,7 +3234,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -3177,22 +3248,22 @@
         <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.2">
@@ -3201,138 +3272,161 @@
         <v>27</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="409" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3346,7 +3440,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -17,7 +17,6 @@
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3158,8 +3157,8 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>模块</t>
   </si>
@@ -417,6 +417,9 @@
 }</t>
   </si>
   <si>
+    <t>管理端使用</t>
+  </si>
+  <si>
     <t>获取消息列表</t>
   </si>
   <si>
@@ -436,6 +439,101 @@
 "list":[
 {"title":"这是标题","content":"这是内容"},{"title":"这是标题","content":"这是内容"}]
 }</t>
+  </si>
+  <si>
+    <t>客户端使用</t>
+  </si>
+  <si>
+    <t>订单模块</t>
+  </si>
+  <si>
+    <t>通过房东账号获取所有订单</t>
+  </si>
+  <si>
+    <t>/order/getAllOrderByHostPhone</t>
+  </si>
+  <si>
+    <t>{
+ "phoneNumber":"15512345678",
+ "token":"B92FFF2C36F767C4DF5B8D3C899384AD"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 1,
+  "message": "获取成功！",
+  "content": {
+    "list": [
+      {
+        "orderId": 20,
+        "createTime": 1524020556000,
+        "lastChangeTime": 1524020562000,
+        "userPhone": "15521291804",
+        "userName": "SUNXT",
+        "hostPhone": "15512345678",
+        "houseId": 100006,
+        "houseImgUrl": "https://z0.muscache.cn/im/pictures/109532439/04ed2571_original.jpg?aki_policy=x_large",
+        "houseTitle": "天河区某优质欧式房源",
+        "houseRentalType": "整套出租",
+        "houseLocation": "广州市天河区中山大道",
+        "checkInDate": 1524020562000,
+        "checkOutDate": 1524020562000,
+        "dayNum": 3,
+        "totalHouseMoney": 600,
+        "deposit": 500,
+        "totalMoney": 1100,
+        "checkInPeopleUserInfoList": [
+          {
+            "id": 4,
+            "idCard": "1231321",
+            "name": "周五sd",
+            "phone": "32423",
+            "belongUserId": "15521291804"
+          }
+        ],
+        "checkInPeopleIdList": "4",
+        "payWay": null,
+        "payWayCode": 0,
+        "status": -1
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功时返回一个订单列表，json数组
+订单每个字段的含义：
+        orderId为订单id
+        "createTime": 订单创建时间，时间戳 long型
+        "lastChangeTime": 订单最后一次修改的时间，时间戳
+        "userPhone": "15521291804",下单的用户账号
+        "userName": "SUNXT",下单的用户名
+        "hostPhone": "15512345678", 房东的账号
+        "houseId": 100006, 订单中的房源id
+        "houseImgUrl": "https://z0.muscache.cn/im/pictures/109532439/04ed2571_original.jpg?aki_policy=x_large", 房源的缩略图
+        "houseTitle": "天河区某优质欧式房源", 房源标题
+        "houseRentalType": "整套出租", 房源出租类型
+        "houseLocation": "广州市天河区中山大道", 房源地址
+        "checkInDate": 1524020562000, 入住时间
+        "checkOutDate": 1524020562000, 离开时间
+        "dayNum": 3, 住的天数
+        "totalHouseMoney": 600, 除押金外的总价格
+        "deposit": 500, 押金
+        "totalMoney": 1100, 订单的总价格
+        "checkInPeopleUserInfoList": [ //json数组，其中为每个入住人的信息
+          {
+            "id": 4, 入住人的id
+            "idCard": "1231321", 入住人的身份证
+            "name": "周五sd", 入住人的姓名
+            "phone": "32423", 入住人的手机号码
+            "belongUserId": "15521291804"，入住人属于的用户账号
+          }
+        ],
+        "checkInPeopleIdList": "4",//可以忽悠
+        "payWay": null, 支付方式 String 支付宝/微信支付
+        "payWayCode": 0, 支付方式的代码 1 代表支付宝支付 2 代表微信支付
+        "status": -1 订单状态 -1代表取消订单，1订单完成，2订单未支付
+</t>
   </si>
 </sst>
 </file>
@@ -445,8 +543,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(\¥* #,##0.00_);_(\¥* \(#,##0.00\);_(\¥* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -463,11 +561,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,30 +576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -516,7 +592,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -524,7 +600,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,23 +658,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,9 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,25 +696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,25 +745,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,13 +847,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,133 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,36 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -909,6 +977,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,204 +1051,213 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,908 +1603,908 @@
     <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="4" width="26.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8333333333333" style="19" customWidth="1"/>
+    <col min="5" max="5" width="28.8333333333333" style="21" customWidth="1"/>
     <col min="6" max="6" width="31.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="31.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="189" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="78.75" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="104" customHeight="1" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,273 +2519,273 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.8333333333333" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17" style="12" customWidth="1"/>
-    <col min="3" max="3" width="39.8333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="12"/>
-    <col min="5" max="5" width="47.3333333333333" style="13" customWidth="1"/>
-    <col min="6" max="6" width="43.8333333333333" style="13" customWidth="1"/>
-    <col min="7" max="7" width="53.3333333333333" style="13" customWidth="1"/>
+    <col min="1" max="1" width="21.8333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17" style="14" customWidth="1"/>
+    <col min="3" max="3" width="39.8333333333333" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" style="14"/>
+    <col min="5" max="5" width="47.3333333333333" style="15" customWidth="1"/>
+    <col min="6" max="6" width="43.8333333333333" style="15" customWidth="1"/>
+    <col min="7" max="7" width="53.3333333333333" style="15" customWidth="1"/>
     <col min="9" max="9" width="73.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="180" customHeight="1" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" ht="78.75" spans="2:7">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="139" customHeight="1" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" ht="139" customHeight="1" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="2:6">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="2:7">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="185" customHeight="1" spans="2:6">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="141.75" spans="2:7">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="141.75" spans="2:7">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" ht="236.25" spans="2:7">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" ht="173.25" spans="2:7">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="16"/>
+      <c r="C13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2704,45 +2811,45 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2755,79 +2862,111 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="54.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81" style="2" customWidth="1"/>
+    <col min="7" max="7" width="72.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="110.25" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="110.25" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" ht="126" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="3" ht="126" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>79</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" ht="409" customHeight="1" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>模块</t>
   </si>
@@ -437,7 +437,7 @@
 "message":"获取成功！",
 "content":
 "list":[
-{"title":"这是标题","content":"这是内容"},{"title":"这是标题","content":"这是内容"}]
+{"title":"这是标题","content":"这是内容","time":1524020556000},{"title":"这是标题","content":"这是内容","time":1524020556000}]
 }</t>
   </si>
   <si>
@@ -535,15 +535,166 @@
         "status": -1 订单状态 -1代表取消订单，1订单完成，2订单未支付
 </t>
   </si>
+  <si>
+    <t>通过房东账号获取所有已支付的订单列表</t>
+  </si>
+  <si>
+    <t>/order/getFinishOrdersByHostPhone</t>
+  </si>
+  <si>
+    <t>{
+  "code": 1,
+  "message": "已完成订单列表获取成功！",
+  "content": {
+    "list": [
+      {
+        "orderId": 19,
+        "createTime": 1523985240000,
+        "lastChangeTime": 1524025801000,
+        "userPhone": "15521291804",
+        "userName": "SUNXT",
+        "hostPhone": "15512345678",
+        "houseId": 100001,
+        "houseImgUrl": "https://z0.muscache.cn/im/pictures/6480365/4d89fd9c_original.jpg?aki_policy=xx_large",
+        "houseTitle": "House with terrace in Paris Center",
+        "houseRentalType": "整套出租",
+        "houseLocation": "巴黎第二区, 法兰西岛(Île-de-France), 法国",
+        "checkInDate": 1524025801000,
+        "checkOutDate": 1524025801000,
+        "dayNum": 2,
+        "totalHouseMoney": 2,
+        "deposit": 1,
+        "totalMoney": 3,
+        "checkInPeopleUserInfoList": [
+          {
+            "id": 4,
+            "idCard": "1231321",
+            "name": "周五sd",
+            "phone": "32423",
+            "belongUserId": "15521291804"
+          },
+          {
+            "id": 5,
+            "idCard": "445121199605045217",
+            "name": "sss",
+            "phone": "15521291805",
+            "belongUserId": "15521291804"
+          }
+        ],
+        "checkInPeopleIdList": "4,5",
+        "payWay": "支付宝支付",
+        "payWayCode": 1,
+        "status": 1
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过房东账号获取所有未支付的订单列表</t>
+  </si>
+  <si>
+    <t>/order/getUnPayOrdersByHostPhone</t>
+  </si>
+  <si>
+    <t>{
+  "code": 1,
+  "message": "未支付订单列表获取成功！",
+  "content": {
+    "list": [
+      {
+        "orderId": 21,
+        "createTime": 1524037656000,
+        "lastChangeTime": 1524037657000,
+        "userPhone": "15521291804",
+        "userName": "SUNXT",
+        "hostPhone": "15512345678",
+        "houseId": 100003,
+        "houseImgUrl": "https://image1.ljcdn.com/440300-inspection/rsp_pic_uploadf116fa66-8ab4-4dc1-87f8-7d4a8ae13f3a.JPG.280x210.jpg.232x174.jpg",
+        "houseTitle": "北欧3",
+        "houseRentalType": "整套出租",
+        "houseLocation": "广州市天河区中山大道",
+        "checkInDate": 1523980800000,
+        "checkOutDate": 1524153600000,
+        "dayNum": 2,
+        "totalHouseMoney": 200,
+        "deposit": 100,
+        "totalMoney": 300,
+        "checkInPeopleUserInfoList": [
+          {
+            "id": 5,
+            "idCard": "445121199605045217",
+            "name": "sss",
+            "phone": "15521291805",
+            "belongUserId": "15521291804"
+          }
+        ],
+        "checkInPeopleIdList": "5",
+        "payWay": null,
+        "payWayCode": 0,
+        "status": 2
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>通过房东账号获取所有已取消的订单列表</t>
+  </si>
+  <si>
+    <t>/order/getCancelOrdersByHostPhone</t>
+  </si>
+  <si>
+    <t>{
+  "code": 1,
+  "message": "取消订单列表获取成功！",
+  "content": {
+    "list": [
+      {
+        "orderId": 20,
+        "createTime": 1524020556000,
+        "lastChangeTime": 1524020562000,
+        "userPhone": "15521291804",
+        "userName": "SUNXT",
+        "hostPhone": "15512345678",
+        "houseId": 100006,
+        "houseImgUrl": "https://z0.muscache.cn/im/pictures/109532439/04ed2571_original.jpg?aki_policy=x_large",
+        "houseTitle": "天河区某优质欧式房源",
+        "houseRentalType": "整套出租",
+        "houseLocation": "广州市天河区中山大道",
+        "checkInDate": 1524020562000,
+        "checkOutDate": 1524020562000,
+        "dayNum": 3,
+        "totalHouseMoney": 600,
+        "deposit": 500,
+        "totalMoney": 1100,
+        "checkInPeopleUserInfoList": [
+          {
+            "id": 4,
+            "idCard": "1231321",
+            "name": "周五sd",
+            "phone": "32423",
+            "belongUserId": "15521291804"
+          }
+        ],
+        "checkInPeopleIdList": "4",
+        "payWay": null,
+        "payWayCode": 0,
+        "status": -1
+      }
+    ]
+  }
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(\¥* #,##0.00_);_(\¥* \(#,##0.00\);_(\¥* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -561,9 +712,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,21 +727,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -599,15 +734,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +749,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -636,6 +764,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -644,14 +780,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +802,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -681,24 +825,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,6 +855,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -739,37 +890,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,145 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,6 +1099,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -957,11 +1123,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,41 +1153,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,149 +1187,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,6 +1356,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,16 +1369,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1645,13 +1796,13 @@
       <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
@@ -1669,13 +1820,13 @@
       <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1690,7 +1841,7 @@
       <c r="D4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="26"/>
@@ -2572,10 +2723,10 @@
       <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -2595,10 +2746,10 @@
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -2834,19 +2985,19 @@
       </c>
     </row>
     <row r="2" ht="108" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -2862,16 +3013,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="54.125" style="2" customWidth="1"/>
@@ -2902,38 +3053,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="110.25" spans="1:7">
+    <row r="2" ht="94.5" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" ht="126" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" ht="126" spans="2:7">
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2950,7 +3100,7 @@
       <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2959,14 +3109,65 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="2:6">
+      <c r="B5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" ht="409.5" spans="2:6">
+      <c r="B6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/接口说明文档/租房系统接口说明文档.xlsx
+++ b/接口说明文档/租房系统接口说明文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>模块</t>
   </si>
@@ -686,15 +686,35 @@
   }
 }</t>
   </si>
+  <si>
+    <t>获取某个房东的所有已支付的订单总金额和订单数量</t>
+  </si>
+  <si>
+    <t>/order/getTotalFinishOrderMoney</t>
+  </si>
+  <si>
+    <t>{
+  "code": 1,
+  "message": "获取成功！",
+  "content": {
+    "totalOrderMoney": 202,
+    "orderCount": 2
+  }
+}</t>
+  </si>
+  <si>
+    <t>totalOrderMoney 已完成的订单总额
+orderCount 已完成的订单总数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(\¥* #,##0.00_);_(\¥* \(#,##0.00\);_(\¥* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -713,7 +733,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,23 +757,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,22 +822,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +839,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,25 +853,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,14 +876,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -890,19 +910,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,163 +1066,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,69 +1115,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1149,69 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1199,146 +1219,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3013,13 +3033,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="34.125" style="2" customWidth="1"/>
@@ -3154,7 +3174,7 @@
       </c>
     </row>
     <row r="7" ht="409.5" spans="2:6">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3168,6 +3188,26 @@
       </c>
       <c r="F7" s="9" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="8" ht="126" spans="2:7">
+      <c r="B8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
